--- a/mini-project/document/요구분석서.xlsx
+++ b/mini-project/document/요구분석서.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1단계" sheetId="2" r:id="rId1"/>
+    <sheet name="2단계" sheetId="3" r:id="rId2"/>
+    <sheet name="3단계" sheetId="4" r:id="rId3"/>
+    <sheet name="4단계" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <t>팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +98,201 @@
   </si>
   <si>
     <t>모든 직원을 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 ID, 조회할 년&amp;월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 ID, 조회할 년&amp;월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무시간 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근한 직원은 퇴근할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 직원은 출근할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 직원을 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 직원 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 이름, 팀 ID, 생일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원을 등록할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 팀을 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 팀 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀을 등록할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올해 입사 직원 : 11개
+그 외 직원 : 15개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원은 남은 연차를 확인할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연차 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 ID, 연차를 사용할 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원은 연차를 신청할 수 있다.
+연차 사용일을 기준으로 연차 등록 제한 기준일 전에 연차를 신청해야한다.
+팀마다 연차 등록 제한 기준일이 다르다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연차 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원을 등록할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 팀 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회할 년&amp;월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 직원의 초과 근무 시간을 조회할 수 있다.
+근무 시간은 분단위로 계산된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초과 근무 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜별 근무 시간과 총합을 조회할 수 있다. 근무시간은 분단위로 계산된다.
+연차 사용여부를 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올해 입사 직원 : 11개
+그 외 직원 : 15개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 직원의 날짜별 근무 시간과 총합을 조회할 수 있다. 근무시간은 분단위로 계산된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 직원의 날짜별 근무 시간과 총합을 조회할 수 있다. 근무시간은 분단위로 계산된다.
+연차 사용여부를 알 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준 근무 시간은 주말과 법정 공휴일은 제외하고 계산</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -381,6 +579,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -390,7 +649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,40 +674,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -734,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -750,48 +1030,48 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
@@ -805,7 +1085,7 @@
       <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -815,7 +1095,7 @@
       <c r="B6" s="6">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -833,21 +1113,21 @@
       <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -862,4 +1142,670 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="10">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="7">
+        <v>9</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="10">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="7">
+        <v>11</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="10">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="2:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
+        <v>11</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="7">
+        <v>12</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>